--- a/Data/Output/Audit_NikeDaily_Transactions.xlsx
+++ b/Data/Output/Audit_NikeDaily_Transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681A7502-73BA-43F9-9058-C8A6006D035F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C483FDB-4352-4E65-B8E6-6A880093C197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,22 +373,23 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="N22" sqref="N21:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -405,7 +407,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -417,5 +419,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>